--- a/Assets/Resources/MasterData/CharacterData.xlsx
+++ b/Assets/Resources/MasterData/CharacterData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\2DRoguelike\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8A2C0C-65DD-4A69-8B82-2A7AB267A821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA9A495-0C0F-4E98-983A-9014AD9E002B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2880" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36600" yWindow="3960" windowWidth="10695" windowHeight="11925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterData" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -56,6 +56,10 @@
   </si>
   <si>
     <t>rogue_sand_enemy1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rogue_sand_enemy2</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -407,7 +411,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -451,7 +455,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="2">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2">
         <v>5</v>
@@ -484,11 +488,21 @@
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2">
